--- a/data/co_infection_competition.xlsx
+++ b/data/co_infection_competition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avrilwang/Desktop/Project-Plasmodium/opt_parm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avrilwang/Desktop/Project_Plasmodium/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C922BC-07E5-0243-9723-558A94721908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE70AD45-65A0-2046-A5D1-D790EDDE4637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="460" windowWidth="27240" windowHeight="15500" xr2:uid="{1AE13E50-7AC9-AD44-9544-5516654CD2A5}"/>
+    <workbookView xWindow="15420" yWindow="500" windowWidth="27240" windowHeight="26580" xr2:uid="{1AE13E50-7AC9-AD44-9544-5516654CD2A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>par_1a</t>
   </si>
@@ -51,9 +51,6 @@
     <t>par_4b</t>
   </si>
   <si>
-    <t>fitness_diff</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
@@ -88,19 +85,58 @@
   </si>
   <si>
     <t>solver</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>tsukushi</t>
+  </si>
+  <si>
+    <t>I1+I2</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>6*10^6</t>
+  </si>
+  <si>
+    <t>8.89*10^6</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>log10</t>
+  </si>
+  <si>
+    <t>vode</t>
+  </si>
+  <si>
+    <t>fitness_1</t>
+  </si>
+  <si>
+    <t>fitness_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,8 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,50 +476,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C0FB06-506F-8844-A401-193AF8C8D0AC}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -509,7 +546,78 @@
         <v>7</v>
       </c>
       <c r="U1" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2">
+        <v>332.43610000000001</v>
+      </c>
+      <c r="N2">
+        <v>-428.86720000000003</v>
+      </c>
+      <c r="O2">
+        <v>-302.7355</v>
+      </c>
+      <c r="P2">
+        <v>-341.72250000000003</v>
+      </c>
+      <c r="Q2">
+        <v>222.09530000000001</v>
+      </c>
+      <c r="R2">
+        <v>824.48199999999997</v>
+      </c>
+      <c r="S2">
+        <v>-286.8107</v>
+      </c>
+      <c r="T2">
+        <v>-220.50569999999999</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2.0543529999999999</v>
+      </c>
+      <c r="V2">
+        <v>1.8883760000000001</v>
       </c>
     </row>
   </sheetData>
